--- a/data/trans_dic/IP38E_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP38E_2023-Edad-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,95; 100,0</t>
+          <t>18,26; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,44; 100,0</t>
+          <t>52,65; 100,0</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,94; 100,0</t>
+          <t>72,53; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 100,0</t>
+          <t>13,11; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>59,84; 94,85</t>
+          <t>63,44; 96,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,11; 100,0</t>
+          <t>29,63; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,3; 100,0</t>
+          <t>55,11; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,22; 96,44</t>
+          <t>59,22; 96,48</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 89,61</t>
+          <t>45,72; 90,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,57; 100,0</t>
+          <t>48,51; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,16; 89,22</t>
+          <t>54,67; 88,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>62,53; 90,89</t>
+          <t>61,79; 90,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,91; 91,43</t>
+          <t>66,08; 92,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,77; 88,94</t>
+          <t>69,03; 88,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP38E_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP38E_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,99%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>89,64%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>74,19; 96,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,26; 100,0</t>
+          <t>76,91; 96,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,65; 100,0</t>
+          <t>81,21; 95,52</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>91,11%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,53; 100,0</t>
+          <t>79,63; 94,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,11; 100,0</t>
+          <t>85,91; 96,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,44; 96,65</t>
+          <t>85,87; 94,7</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>87,81%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 100,0</t>
+          <t>61,77; 91,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,11; 100,0</t>
+          <t>83,56; 96,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,22; 96,48</t>
+          <t>78,35; 92,98</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>85,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,37%</t>
+          <t>85,86%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,72; 90,5</t>
+          <t>77,29; 91,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,51; 100,0</t>
+          <t>76,98; 91,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,67; 88,72</t>
+          <t>79,94; 90,42</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>86,05%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>88,1%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>61,79; 90,98</t>
+          <t>80,27; 90,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,08; 92,57</t>
+          <t>85,12; 92,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,03; 88,59</t>
+          <t>85,02; 91,0</t>
         </is>
       </c>
     </row>
